--- a/Desarrollo/BiblioTech/documentacion/BT-CP.xlsx
+++ b/Desarrollo/BiblioTech/documentacion/BT-CP.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mikZwFOYpQGxgiwqTVyi7L+8g5J9A=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgHBtZghkXwT4rjqivMKO5PbzU3cw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
@@ -81,16 +81,16 @@
     <t>Cronograma de Proyecto</t>
   </si>
   <si>
-    <t>BT-CP.DOCX</t>
+    <t>BT-CP.XLSX</t>
   </si>
   <si>
     <t>Formulación del acta de constitución del proyecto</t>
   </si>
   <si>
-    <t>Project Charter</t>
-  </si>
-  <si>
-    <t>BT-PC.DOCX</t>
+    <t>Acta de Constitucion</t>
+  </si>
+  <si>
+    <t>BT-AC.DOCX</t>
   </si>
   <si>
     <t>Definición de las historias de usuario</t>
@@ -105,13 +105,13 @@
     <t>Escriba/AS</t>
   </si>
   <si>
-    <t>Elaboración del product backlog</t>
-  </si>
-  <si>
-    <t>Documento de product backlog</t>
-  </si>
-  <si>
-    <t>BT- DPB.DOCX</t>
+    <t>Elaboración de pila de productos</t>
+  </si>
+  <si>
+    <t>Documento de pila de productos</t>
+  </si>
+  <si>
+    <t>BT- DPP.XLSX</t>
   </si>
   <si>
     <t>Escriba/AS-Suarez/DevOps</t>
@@ -126,7 +126,7 @@
     <t>BT-DBD.DOCX</t>
   </si>
   <si>
-    <t>Gonzales/DBA-Vicuña/Diseñador</t>
+    <t>Gonzales/DBA</t>
   </si>
   <si>
     <t>Diseño de la arquitectura</t>
@@ -141,99 +141,105 @@
     <t>Cruzado/ArqSW-Vicuña/Diseñador</t>
   </si>
   <si>
+    <t>Diagrama del proceso de negocio</t>
+  </si>
+  <si>
+    <t>Documento del proceso de negocio</t>
+  </si>
+  <si>
+    <t>BT-DPN.DOCX</t>
+  </si>
+  <si>
+    <t>Vicuña/Diseñador</t>
+  </si>
+  <si>
+    <t>Retrospectiva</t>
+  </si>
+  <si>
+    <t>BT-ST.DOCX</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Elaboración del cronograma del sprint 2</t>
+  </si>
+  <si>
+    <t>Creación de scripts de las base de datos</t>
+  </si>
+  <si>
+    <t>Diseño del diagrama de clases</t>
+  </si>
+  <si>
+    <t>Diagrama de Clases</t>
+  </si>
+  <si>
+    <t>BT-DC.DOCX</t>
+  </si>
+  <si>
+    <t>HU-Modulo Administrador</t>
+  </si>
+  <si>
+    <t>Escriba/Ana-García/Backend-Espejo/Frontend</t>
+  </si>
+  <si>
+    <t>Diseño de las vistas</t>
+  </si>
+  <si>
+    <t>Warframes y Mockups</t>
+  </si>
+  <si>
+    <t>BT-WM.PDF</t>
+  </si>
+  <si>
+    <t>Pruebas unitarias</t>
+  </si>
+  <si>
+    <t>Plan de Pruebas</t>
+  </si>
+  <si>
+    <t>BT-PP.XLSX</t>
+  </si>
+  <si>
+    <t>Kochi/Tester-Rivera/JP</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Elaboración del cronograma del sprint 3</t>
+  </si>
+  <si>
+    <t>HU-Modulo Usuario</t>
+  </si>
+  <si>
+    <t>Escriba/AS-García/Backend-Espejo/Frontend</t>
+  </si>
+  <si>
+    <t>HU-Modulo Autentificación</t>
+  </si>
+  <si>
+    <t>Integración BD-backend</t>
+  </si>
+  <si>
+    <t>García/Backend-Gonzales/DBA-Suarez/DevOps</t>
+  </si>
+  <si>
+    <t>Integración frontend-backend</t>
+  </si>
+  <si>
+    <t>García/Backend-Espejo/Frontend-Suarez/DevOps</t>
+  </si>
+  <si>
+    <t>Kochi/Tester-Rivera/JP-Vicuña/Diseñador</t>
+  </si>
+  <si>
+    <t>Pruebas de integracion</t>
+  </si>
+  <si>
     <t>Retrospectiva del sprint</t>
   </si>
   <si>
-    <t>Sprint Retrospective</t>
-  </si>
-  <si>
-    <t>BT-ST.DOCX</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Elaboración del cronograma del sprint 2</t>
-  </si>
-  <si>
-    <t>Diseño de las vistas</t>
-  </si>
-  <si>
-    <t>Warframes y Mockups</t>
-  </si>
-  <si>
-    <t>BT-WM.DOCX</t>
-  </si>
-  <si>
-    <t>Vicuña/Diseñador</t>
-  </si>
-  <si>
-    <t>Creación de scripts de las base de datos</t>
-  </si>
-  <si>
-    <t>Gonzales/DBA</t>
-  </si>
-  <si>
-    <t>Diseño del diagrama de clases</t>
-  </si>
-  <si>
-    <t>Diagrama de Clases</t>
-  </si>
-  <si>
-    <t>BT-DC.DOCX</t>
-  </si>
-  <si>
-    <t>HU-Modulo Administrador</t>
-  </si>
-  <si>
-    <t>Escriba/Ana-García/Backend-Espejo/Frontend</t>
-  </si>
-  <si>
-    <t>Pruebas unitarias</t>
-  </si>
-  <si>
-    <t>Plan de Pruebas</t>
-  </si>
-  <si>
-    <t>BT-PP.DOCX</t>
-  </si>
-  <si>
-    <t>Kochi/Tester-Rivera/JP</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Elaboración del cronograma del sprint 3</t>
-  </si>
-  <si>
-    <t>HU-Modulo Usuario</t>
-  </si>
-  <si>
-    <t>Escriba/AS-García/Backend-Espejo/Frontend</t>
-  </si>
-  <si>
-    <t>HU-Modulo Autentificación</t>
-  </si>
-  <si>
-    <t>Integración BD-backend</t>
-  </si>
-  <si>
-    <t>García/Backend-Gonzales/DBA-Suarez/DevOps</t>
-  </si>
-  <si>
-    <t>Integración frontend-backend</t>
-  </si>
-  <si>
-    <t>García/Backend-Espejo/Frontend-Suarez/DevOps</t>
-  </si>
-  <si>
-    <t>Kochi/Tester-Rivera/JP-Vicuña/Diseñador</t>
-  </si>
-  <si>
-    <t>Pruebas de integracion</t>
-  </si>
-  <si>
     <t>Sprint 3</t>
   </si>
   <si>
@@ -274,6 +280,15 @@
   </si>
   <si>
     <t>Cruzado/ArqSW-Rivera/JP</t>
+  </si>
+  <si>
+    <t>Especificación de requisitos del sistema</t>
+  </si>
+  <si>
+    <t>Documento de requisitos del sistema</t>
+  </si>
+  <si>
+    <t>BT-ERS.DOCX</t>
   </si>
   <si>
     <t>Sprint 4</t>
@@ -287,7 +302,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -309,6 +324,7 @@
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -364,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -384,38 +400,43 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -692,905 +713,1000 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
+        <v>44450.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="11">
+        <v>44366.0</v>
+      </c>
+      <c r="G9" s="11">
+        <v>44367.0</v>
+      </c>
+      <c r="H9" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="11">
+        <v>44366.0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>44367.0</v>
+      </c>
+      <c r="H10" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="11">
+        <v>44366.0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>44367.0</v>
+      </c>
+      <c r="H11" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="11">
+        <v>44367.0</v>
+      </c>
+      <c r="G12" s="11">
+        <v>44370.0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="11">
+        <v>44379.0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>44380.0</v>
+      </c>
+      <c r="H13" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="11">
+        <v>44381.0</v>
+      </c>
+      <c r="G14" s="11">
+        <v>44383.0</v>
+      </c>
+      <c r="H14" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="11">
+        <v>44385.0</v>
+      </c>
+      <c r="G15" s="11">
+        <v>44387.0</v>
+      </c>
+      <c r="H15" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="14">
+        <v>44387.0</v>
+      </c>
+      <c r="G16" s="11">
+        <v>44388.0</v>
+      </c>
+      <c r="H16" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="11">
+        <v>44387.0</v>
+      </c>
+      <c r="G17" s="11">
+        <v>44388.0</v>
+      </c>
+      <c r="H17" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="16">
+        <v>44373.0</v>
+      </c>
+      <c r="G18" s="16">
+        <v>44388.0</v>
+      </c>
+      <c r="H18" s="17">
+        <f>AVERAGE(H9:H17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="9"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="11">
+        <v>44388.0</v>
+      </c>
+      <c r="G20" s="11">
+        <v>44389.0</v>
+      </c>
+      <c r="H20" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="11">
+        <v>44392.0</v>
+      </c>
+      <c r="G21" s="11">
+        <v>44394.0</v>
+      </c>
+      <c r="H21" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="11">
+        <v>44395.0</v>
+      </c>
+      <c r="G22" s="11">
+        <v>44401.0</v>
+      </c>
+      <c r="H22" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="11">
+        <v>44397.0</v>
+      </c>
+      <c r="G23" s="14">
+        <v>44400.0</v>
+      </c>
+      <c r="H23" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="14">
+        <v>44400.0</v>
+      </c>
+      <c r="G24" s="14">
+        <v>44402.0</v>
+      </c>
+      <c r="H24" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="11">
+        <v>44402.0</v>
+      </c>
+      <c r="G25" s="11">
+        <v>44404.0</v>
+      </c>
+      <c r="H25" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="11">
+        <v>44403.0</v>
+      </c>
+      <c r="G26" s="11">
+        <v>44404.0</v>
+      </c>
+      <c r="H26" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="B27" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="16">
+        <v>44388.0</v>
+      </c>
+      <c r="G27" s="16">
+        <v>44404.0</v>
+      </c>
+      <c r="H27" s="17">
+        <f>AVERAGE(H20:H26)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="B28" s="9"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="B29" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="11">
+        <v>44404.0</v>
+      </c>
+      <c r="G29" s="11">
+        <v>44405.0</v>
+      </c>
+      <c r="H29" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="B30" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="11">
+        <v>44405.0</v>
+      </c>
+      <c r="G30" s="11">
+        <v>44410.0</v>
+      </c>
+      <c r="H30" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="B31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="11">
+        <v>44410.0</v>
+      </c>
+      <c r="G31" s="11">
+        <v>44414.0</v>
+      </c>
+      <c r="H31" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="B32" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="11">
+        <v>44414.0</v>
+      </c>
+      <c r="G32" s="11">
         <v>44420.0</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
+      <c r="H32" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="B33" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="11">
+        <v>44420.0</v>
+      </c>
+      <c r="G33" s="11">
+        <v>44427.0</v>
+      </c>
+      <c r="H33" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="B34" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="11">
+        <v>44428.0</v>
+      </c>
+      <c r="G34" s="11">
+        <v>44430.0</v>
+      </c>
+      <c r="H34" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="B35" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="11">
+        <v>44431.0</v>
+      </c>
+      <c r="G35" s="11">
+        <v>44433.0</v>
+      </c>
+      <c r="H35" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="B36" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="10">
-        <v>44349.0</v>
-      </c>
-      <c r="G9" s="10">
-        <v>44350.0</v>
-      </c>
-      <c r="H9" s="11">
+      <c r="F36" s="11">
+        <v>44434.0</v>
+      </c>
+      <c r="G36" s="11">
+        <v>44435.0</v>
+      </c>
+      <c r="H36" s="12">
         <v>1.0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="9" t="s">
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="B37" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="16">
+        <v>44404.0</v>
+      </c>
+      <c r="G37" s="16">
+        <v>44435.0</v>
+      </c>
+      <c r="H37" s="17">
+        <f>AVERAGE(H29,H36)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="B38" s="9"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="B39" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D39" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E39" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="10">
-        <v>44349.0</v>
-      </c>
-      <c r="G10" s="10">
-        <v>44350.0</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="F39" s="14">
+        <v>44436.0</v>
+      </c>
+      <c r="G39" s="11">
+        <v>44443.0</v>
+      </c>
+      <c r="H39" s="12">
         <v>1.0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="8" t="s">
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="B40" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" s="14">
+        <v>44440.0</v>
+      </c>
+      <c r="G40" s="14">
+        <v>44443.0</v>
+      </c>
+      <c r="H40" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="B41" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="14">
+        <v>44441.0</v>
+      </c>
+      <c r="G41" s="14">
+        <v>44443.0</v>
+      </c>
+      <c r="H41" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="B42" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" s="14">
+        <v>44442.0</v>
+      </c>
+      <c r="G42" s="14">
+        <v>44444.0</v>
+      </c>
+      <c r="H42" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="B43" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" s="14">
+        <v>44442.0</v>
+      </c>
+      <c r="G43" s="14">
+        <v>44450.0</v>
+      </c>
+      <c r="H43" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="B44" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" s="14">
+        <v>44443.0</v>
+      </c>
+      <c r="G44" s="14">
+        <v>44450.0</v>
+      </c>
+      <c r="H44" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="B45" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="10">
-        <v>44349.0</v>
-      </c>
-      <c r="G11" s="10">
-        <v>44350.0</v>
-      </c>
-      <c r="H11" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="10">
-        <v>44350.0</v>
-      </c>
-      <c r="G12" s="10">
-        <v>44353.0</v>
-      </c>
-      <c r="H12" s="11">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="10">
-        <v>44351.0</v>
-      </c>
-      <c r="G13" s="10">
-        <v>44354.0</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="10">
-        <v>44355.0</v>
-      </c>
-      <c r="G14" s="10">
-        <v>44359.0</v>
-      </c>
-      <c r="H14" s="11">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="10">
-        <v>44360.0</v>
-      </c>
-      <c r="G15" s="10">
-        <v>44362.0</v>
-      </c>
-      <c r="H15" s="11">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="10">
-        <v>44363.0</v>
-      </c>
-      <c r="G16" s="10">
-        <v>44364.0</v>
-      </c>
-      <c r="H16" s="11">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="14">
-        <v>44349.0</v>
-      </c>
-      <c r="G17" s="14">
-        <v>44364.0</v>
-      </c>
-      <c r="H17" s="15">
-        <f>AVERAGE(H9:H16)</f>
-        <v>0.43125</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="8"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="10">
-        <v>44364.0</v>
-      </c>
-      <c r="G19" s="10">
-        <v>44365.0</v>
-      </c>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="10">
-        <v>44365.0</v>
-      </c>
-      <c r="G20" s="10">
-        <v>44367.0</v>
-      </c>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="10">
-        <v>44368.0</v>
-      </c>
-      <c r="G21" s="10">
-        <v>44370.0</v>
-      </c>
-      <c r="H21" s="16"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="10">
-        <v>44371.0</v>
-      </c>
-      <c r="G22" s="10">
-        <v>44377.0</v>
-      </c>
-      <c r="H22" s="16"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="10">
-        <v>44373.0</v>
-      </c>
-      <c r="G23" s="10">
-        <v>44378.0</v>
-      </c>
-      <c r="H23" s="16"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="10">
-        <v>44378.0</v>
-      </c>
-      <c r="G24" s="10">
-        <v>44380.0</v>
-      </c>
-      <c r="H24" s="16"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="10">
-        <v>44379.0</v>
-      </c>
-      <c r="G25" s="10">
-        <v>44380.0</v>
-      </c>
-      <c r="H25" s="16"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="14">
-        <v>44364.0</v>
-      </c>
-      <c r="G26" s="14">
-        <v>44380.0</v>
-      </c>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" s="8"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="B28" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="10">
-        <v>44380.0</v>
-      </c>
-      <c r="G28" s="10">
-        <v>44381.0</v>
-      </c>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="10">
-        <v>44381.0</v>
-      </c>
-      <c r="G29" s="10">
-        <v>44386.0</v>
-      </c>
-      <c r="H29" s="16"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="10">
-        <v>44386.0</v>
-      </c>
-      <c r="G30" s="10">
-        <v>44390.0</v>
-      </c>
-      <c r="H30" s="16"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="B31" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F31" s="10">
-        <v>44390.0</v>
-      </c>
-      <c r="G31" s="10">
-        <v>44396.0</v>
-      </c>
-      <c r="H31" s="16"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32" s="10">
-        <v>44396.0</v>
-      </c>
-      <c r="G32" s="10">
-        <v>44403.0</v>
-      </c>
-      <c r="H32" s="16"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="B33" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="10">
-        <v>44404.0</v>
-      </c>
-      <c r="G33" s="10">
-        <v>44406.0</v>
-      </c>
-      <c r="H33" s="16"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" s="10">
-        <v>44407.0</v>
-      </c>
-      <c r="G34" s="10">
-        <v>44409.0</v>
-      </c>
-      <c r="H34" s="16"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="10">
-        <v>44410.0</v>
-      </c>
-      <c r="G35" s="10">
-        <v>44411.0</v>
-      </c>
-      <c r="H35" s="16"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="14">
-        <v>44380.0</v>
-      </c>
-      <c r="G36" s="14">
-        <v>44411.0</v>
-      </c>
-      <c r="H36" s="15"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="8"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="10">
-        <v>44411.0</v>
-      </c>
-      <c r="G38" s="10">
-        <v>44412.0</v>
-      </c>
-      <c r="H38" s="16"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F39" s="10">
-        <v>44413.0</v>
-      </c>
-      <c r="G39" s="10">
-        <v>44416.0</v>
-      </c>
-      <c r="H39" s="16"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F40" s="10">
-        <v>44417.0</v>
-      </c>
-      <c r="G40" s="10">
-        <v>44419.0</v>
-      </c>
-      <c r="H40" s="16"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F41" s="10">
-        <v>44419.0</v>
-      </c>
-      <c r="G41" s="10">
-        <v>44422.0</v>
-      </c>
-      <c r="H41" s="16"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F42" s="10">
-        <v>44423.0</v>
-      </c>
-      <c r="G42" s="10">
-        <v>44426.0</v>
-      </c>
-      <c r="H42" s="16"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="10">
-        <v>44426.0</v>
-      </c>
-      <c r="G43" s="10">
-        <v>44426.0</v>
-      </c>
-      <c r="H43" s="16"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="14">
-        <v>44411.0</v>
-      </c>
-      <c r="G44" s="14">
-        <v>44426.0</v>
-      </c>
-      <c r="H44" s="15"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="B45" s="19"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
+      <c r="F45" s="14">
+        <v>44443.0</v>
+      </c>
+      <c r="G45" s="14">
+        <v>44450.0</v>
+      </c>
+      <c r="H45" s="12">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
+      <c r="B46" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="21">
+        <v>44436.0</v>
+      </c>
+      <c r="G46" s="21">
+        <v>44450.0</v>
+      </c>
+      <c r="H46" s="17">
+        <f>AVERAGE(H39,H45)</f>
+        <v>0.95</v>
+      </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="B63" s="19"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="B64" s="19"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="B65" s="19"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
+      <c r="B65" s="22"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="B66" s="22"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="B67" s="22"/>
+    </row>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1"/>
     <row r="70" ht="15.75" customHeight="1"/>
@@ -2531,6 +2647,8 @@
     <row r="1005" ht="15.75" customHeight="1"/>
     <row r="1006" ht="15.75" customHeight="1"/>
     <row r="1007" ht="15.75" customHeight="1"/>
+    <row r="1008" ht="15.75" customHeight="1"/>
+    <row r="1009" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
